--- a/data.xlsx
+++ b/data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Downloads\1-A-1-A-Dashboard-Streamlit-con bd\Analisis de metricas\analisis_gastos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Downloads\analisis_gastos-main\analisis_gastos-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9048"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17112" windowHeight="6048"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="45">
   <si>
     <t>OrderDate</t>
   </si>
@@ -992,8 +992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="I127" sqref="I127"/>
+    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4391,180 +4391,894 @@
       <c r="M117" s="2"/>
     </row>
     <row r="118" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="1"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
+      <c r="A118" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B118" t="s">
+        <v>14</v>
+      </c>
+      <c r="C118" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" t="s">
+        <v>38</v>
+      </c>
+      <c r="E118" t="s">
+        <v>11</v>
+      </c>
+      <c r="F118">
+        <v>1</v>
+      </c>
+      <c r="G118" s="4">
+        <v>198.46938775510205</v>
+      </c>
+      <c r="H118" s="4">
+        <v>198.46938775510205</v>
+      </c>
       <c r="M118" s="2"/>
     </row>
     <row r="119" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="1"/>
-      <c r="G119" s="4"/>
-      <c r="H119" s="4"/>
+      <c r="A119" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B119" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119" t="s">
+        <v>39</v>
+      </c>
+      <c r="E119" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119">
+        <v>1</v>
+      </c>
+      <c r="G119" s="4">
+        <v>587.85714285714289</v>
+      </c>
+      <c r="H119" s="4">
+        <v>587.85714285714289</v>
+      </c>
       <c r="M119" s="2"/>
     </row>
     <row r="120" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="1"/>
-      <c r="G120" s="4"/>
-      <c r="H120" s="4"/>
+      <c r="A120" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" t="s">
+        <v>38</v>
+      </c>
+      <c r="E120" t="s">
+        <v>11</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120" s="4">
+        <v>413.77551020408163</v>
+      </c>
+      <c r="H120" s="4">
+        <v>413.77551020408163</v>
+      </c>
       <c r="M120" s="2"/>
     </row>
     <row r="121" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="1"/>
-      <c r="G121" s="4"/>
-      <c r="H121" s="4"/>
+      <c r="A121" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" t="s">
+        <v>6</v>
+      </c>
+      <c r="D121" t="s">
+        <v>38</v>
+      </c>
+      <c r="E121" t="s">
+        <v>36</v>
+      </c>
+      <c r="F121">
+        <v>1</v>
+      </c>
+      <c r="G121" s="4">
+        <v>105.61224489795919</v>
+      </c>
+      <c r="H121" s="4">
+        <v>105.61224489795919</v>
+      </c>
       <c r="M121" s="2"/>
     </row>
     <row r="122" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="1"/>
-      <c r="G122" s="4"/>
-      <c r="H122" s="4"/>
+      <c r="A122" s="1">
+        <v>45447</v>
+      </c>
+      <c r="B122" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" t="s">
+        <v>39</v>
+      </c>
+      <c r="E122" t="s">
+        <v>36</v>
+      </c>
+      <c r="F122">
+        <v>1</v>
+      </c>
+      <c r="G122" s="4">
+        <v>191.73469387755102</v>
+      </c>
+      <c r="H122" s="4">
+        <v>191.73469387755102</v>
+      </c>
       <c r="M122" s="2"/>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A123" s="1"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
+      <c r="A123" s="1">
+        <v>45450</v>
+      </c>
+      <c r="B123" t="s">
+        <v>14</v>
+      </c>
+      <c r="C123" t="s">
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>38</v>
+      </c>
+      <c r="E123" t="s">
+        <v>25</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" s="4">
+        <v>14.935714285714285</v>
+      </c>
+      <c r="H123" s="4">
+        <v>14.935714285714285</v>
+      </c>
       <c r="M123" s="2"/>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A124" s="1"/>
-      <c r="G124" s="4"/>
-      <c r="H124" s="4"/>
+      <c r="A124" s="1">
+        <v>45451</v>
+      </c>
+      <c r="B124" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124" t="s">
+        <v>6</v>
+      </c>
+      <c r="D124" t="s">
+        <v>38</v>
+      </c>
+      <c r="E124" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124" s="4">
+        <v>176.9387755102041</v>
+      </c>
+      <c r="H124" s="4">
+        <v>176.9387755102041</v>
+      </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A125" s="1"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
+      <c r="A125" s="1">
+        <v>45451</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" t="s">
+        <v>41</v>
+      </c>
+      <c r="E125" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125">
+        <v>4</v>
+      </c>
+      <c r="G125" s="4">
+        <v>5.0959183673469388</v>
+      </c>
+      <c r="H125" s="4">
+        <v>20.383673469387755</v>
+      </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A126" s="1"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
+      <c r="A126" s="1">
+        <v>45451</v>
+      </c>
+      <c r="B126" t="s">
+        <v>15</v>
+      </c>
+      <c r="C126" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" t="s">
+        <v>41</v>
+      </c>
+      <c r="E126" t="s">
+        <v>23</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126" s="4">
+        <v>6.1224489795918364</v>
+      </c>
+      <c r="H126" s="4">
+        <v>6.1224489795918364</v>
+      </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A127" s="1"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
+      <c r="A127" s="1">
+        <v>45455</v>
+      </c>
+      <c r="B127" t="s">
+        <v>14</v>
+      </c>
+      <c r="C127" t="s">
+        <v>6</v>
+      </c>
+      <c r="D127" t="s">
+        <v>38</v>
+      </c>
+      <c r="E127" t="s">
+        <v>7</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127" s="4">
+        <v>19.387755102040817</v>
+      </c>
+      <c r="H127" s="4">
+        <v>19.387755102040817</v>
+      </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A128" s="1"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
+      <c r="A128" s="1">
+        <v>45458</v>
+      </c>
+      <c r="B128" t="s">
+        <v>15</v>
+      </c>
+      <c r="C128" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" t="s">
+        <v>41</v>
+      </c>
+      <c r="E128" t="s">
+        <v>21</v>
+      </c>
+      <c r="F128">
+        <v>4</v>
+      </c>
+      <c r="G128" s="4">
+        <v>6.8642857142857139</v>
+      </c>
+      <c r="H128" s="4">
+        <v>27.457142857142856</v>
+      </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="1"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
+      <c r="A129" s="1">
+        <v>45458</v>
+      </c>
+      <c r="B129" t="s">
+        <v>15</v>
+      </c>
+      <c r="C129" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" t="s">
+        <v>42</v>
+      </c>
+      <c r="E129" t="s">
+        <v>21</v>
+      </c>
+      <c r="F129">
+        <v>4</v>
+      </c>
+      <c r="G129" s="4">
+        <v>7.1418367346938778</v>
+      </c>
+      <c r="H129" s="4">
+        <v>28.567346938775511</v>
+      </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="1"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
+      <c r="A130" s="1">
+        <v>45458</v>
+      </c>
+      <c r="B130" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" t="s">
+        <v>17</v>
+      </c>
+      <c r="D130" t="s">
+        <v>39</v>
+      </c>
+      <c r="E130" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+      <c r="G130" s="4">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="H130" s="4">
+        <v>42.857142857142854</v>
+      </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="1"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
+      <c r="A131" s="1">
+        <v>45459</v>
+      </c>
+      <c r="B131" t="s">
+        <v>15</v>
+      </c>
+      <c r="C131" t="s">
+        <v>8</v>
+      </c>
+      <c r="D131" t="s">
+        <v>42</v>
+      </c>
+      <c r="E131" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131">
+        <v>4</v>
+      </c>
+      <c r="G131" s="4">
+        <v>5.3183673469387758</v>
+      </c>
+      <c r="H131" s="4">
+        <v>21.273469387755103</v>
+      </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A132" s="1"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
+      <c r="A132" s="1">
+        <v>45460</v>
+      </c>
+      <c r="B132" t="s">
+        <v>14</v>
+      </c>
+      <c r="C132" t="s">
+        <v>6</v>
+      </c>
+      <c r="D132" t="s">
+        <v>38</v>
+      </c>
+      <c r="E132" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132">
+        <v>4</v>
+      </c>
+      <c r="G132" s="4">
+        <v>2.0316326530612243</v>
+      </c>
+      <c r="H132" s="4">
+        <v>8.1265306122448973</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A133" s="1"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
+      <c r="A133" s="1">
+        <v>45460</v>
+      </c>
+      <c r="B133" t="s">
+        <v>14</v>
+      </c>
+      <c r="C133" t="s">
+        <v>28</v>
+      </c>
+      <c r="D133" t="s">
+        <v>43</v>
+      </c>
+      <c r="E133" t="s">
+        <v>29</v>
+      </c>
+      <c r="F133">
+        <v>3</v>
+      </c>
+      <c r="G133" s="4">
+        <v>38.204081632653065</v>
+      </c>
+      <c r="H133" s="4">
+        <v>114.61224489795919</v>
+      </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A134" s="1"/>
-      <c r="G134" s="4"/>
-      <c r="H134" s="4"/>
+      <c r="A134" s="1">
+        <v>45460</v>
+      </c>
+      <c r="B134" t="s">
+        <v>15</v>
+      </c>
+      <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" t="s">
+        <v>40</v>
+      </c>
+      <c r="E134" t="s">
+        <v>18</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" s="4">
+        <v>13.66938775510204</v>
+      </c>
+      <c r="H134" s="4">
+        <v>13.66938775510204</v>
+      </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A135" s="1"/>
-      <c r="G135" s="4"/>
-      <c r="H135" s="4"/>
+      <c r="A135" s="1">
+        <v>45461</v>
+      </c>
+      <c r="B135" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" t="s">
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
+        <v>38</v>
+      </c>
+      <c r="E135" t="s">
+        <v>11</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135" s="4">
+        <v>204.08163265306123</v>
+      </c>
+      <c r="H135" s="4">
+        <v>204.08163265306123</v>
+      </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A136" s="1"/>
-      <c r="G136" s="4"/>
-      <c r="H136" s="4"/>
+      <c r="A136" s="1">
+        <v>45465</v>
+      </c>
+      <c r="B136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" t="s">
+        <v>40</v>
+      </c>
+      <c r="E136" t="s">
+        <v>18</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136" s="4">
+        <v>13.66938775510204</v>
+      </c>
+      <c r="H136" s="4">
+        <v>13.66938775510204</v>
+      </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A137" s="1"/>
-      <c r="G137" s="4"/>
-      <c r="H137" s="4"/>
+      <c r="A137" s="1">
+        <v>45468</v>
+      </c>
+      <c r="B137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
+        <v>38</v>
+      </c>
+      <c r="E137" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137">
+        <v>9</v>
+      </c>
+      <c r="G137" s="4">
+        <v>4.1704081632653063</v>
+      </c>
+      <c r="H137" s="4">
+        <v>37.533673469387757</v>
+      </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A138" s="1"/>
-      <c r="G138" s="4"/>
-      <c r="H138" s="4"/>
+      <c r="A138" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B138" t="s">
+        <v>17</v>
+      </c>
+      <c r="C138" t="s">
+        <v>17</v>
+      </c>
+      <c r="D138" t="s">
+        <v>39</v>
+      </c>
+      <c r="E138" t="s">
+        <v>11</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" s="4">
+        <v>663.0612244897959</v>
+      </c>
+      <c r="H138" s="4">
+        <v>663.0612244897959</v>
+      </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A139" s="1"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
+      <c r="A139" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B139" t="s">
+        <v>14</v>
+      </c>
+      <c r="C139" t="s">
+        <v>6</v>
+      </c>
+      <c r="D139" t="s">
+        <v>38</v>
+      </c>
+      <c r="E139" t="s">
+        <v>11</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139" s="4">
+        <v>204.08163265306123</v>
+      </c>
+      <c r="H139" s="4">
+        <v>204.08163265306123</v>
+      </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A140" s="1"/>
-      <c r="G140" s="4"/>
-      <c r="H140" s="4"/>
+      <c r="A140" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" t="s">
+        <v>38</v>
+      </c>
+      <c r="E140" t="s">
+        <v>11</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140" s="4">
+        <v>413.77551020408163</v>
+      </c>
+      <c r="H140" s="4">
+        <v>413.77551020408163</v>
+      </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A141" s="1"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
+      <c r="A141" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B141" t="s">
+        <v>14</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>38</v>
+      </c>
+      <c r="E141" t="s">
+        <v>36</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141" s="4">
+        <v>191.73469387755102</v>
+      </c>
+      <c r="H141" s="4">
+        <v>191.73469387755102</v>
+      </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A142" s="1"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
+      <c r="A142" s="1">
+        <v>45477</v>
+      </c>
+      <c r="B142" t="s">
+        <v>17</v>
+      </c>
+      <c r="C142" t="s">
+        <v>17</v>
+      </c>
+      <c r="D142" t="s">
+        <v>39</v>
+      </c>
+      <c r="E142" t="s">
+        <v>36</v>
+      </c>
+      <c r="F142">
+        <v>1</v>
+      </c>
+      <c r="G142" s="4">
+        <v>105.61224489795919</v>
+      </c>
+      <c r="H142" s="4">
+        <v>105.61224489795919</v>
+      </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A143" s="1"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
+      <c r="A143" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B143" t="s">
+        <v>14</v>
+      </c>
+      <c r="C143" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s">
+        <v>38</v>
+      </c>
+      <c r="E143" t="s">
+        <v>24</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143" s="4">
+        <v>214.28571428571428</v>
+      </c>
+      <c r="H143" s="4">
+        <v>214.28571428571428</v>
+      </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A144" s="1"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
+      <c r="A144" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B144" t="s">
+        <v>15</v>
+      </c>
+      <c r="C144" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" t="s">
+        <v>41</v>
+      </c>
+      <c r="E144" t="s">
+        <v>23</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144" s="4">
+        <v>6.1224489795918364</v>
+      </c>
+      <c r="H144" s="4">
+        <v>6.1224489795918364</v>
+      </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A145" s="1"/>
-      <c r="G145" s="4"/>
-      <c r="H145" s="4"/>
+      <c r="A145" s="1">
+        <v>45482</v>
+      </c>
+      <c r="B145" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" t="s">
+        <v>42</v>
+      </c>
+      <c r="E145" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145">
+        <v>4</v>
+      </c>
+      <c r="G145" s="4">
+        <v>5.3183673469387758</v>
+      </c>
+      <c r="H145" s="4">
+        <v>21.273469387755103</v>
+      </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A146" s="1"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
+      <c r="A146" s="1">
+        <v>45488</v>
+      </c>
+      <c r="B146" t="s">
+        <v>17</v>
+      </c>
+      <c r="C146" t="s">
+        <v>17</v>
+      </c>
+      <c r="D146" t="s">
+        <v>39</v>
+      </c>
+      <c r="E146" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+      <c r="G146" s="4">
+        <v>42.857142857142854</v>
+      </c>
+      <c r="H146" s="4">
+        <v>42.857142857142854</v>
+      </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A147" s="1"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
+      <c r="A147" s="1">
+        <v>45488</v>
+      </c>
+      <c r="B147" t="s">
+        <v>15</v>
+      </c>
+      <c r="C147" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" t="s">
+        <v>41</v>
+      </c>
+      <c r="E147" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147">
+        <v>4</v>
+      </c>
+      <c r="G147" s="4">
+        <v>5.0959183673469388</v>
+      </c>
+      <c r="H147" s="4">
+        <v>20.383673469387755</v>
+      </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A148" s="1"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
+      <c r="A148" s="1">
+        <v>45493</v>
+      </c>
+      <c r="B148" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" t="s">
+        <v>6</v>
+      </c>
+      <c r="D148" t="s">
+        <v>38</v>
+      </c>
+      <c r="E148" t="s">
+        <v>9</v>
+      </c>
+      <c r="F148">
+        <v>4</v>
+      </c>
+      <c r="G148" s="4">
+        <v>2.0316326530612243</v>
+      </c>
+      <c r="H148" s="4">
+        <v>8.1265306122448973</v>
+      </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A149" s="1"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
+      <c r="A149" s="1">
+        <v>45493</v>
+      </c>
+      <c r="B149" t="s">
+        <v>14</v>
+      </c>
+      <c r="C149" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" t="s">
+        <v>38</v>
+      </c>
+      <c r="E149" t="s">
+        <v>11</v>
+      </c>
+      <c r="F149">
+        <v>1</v>
+      </c>
+      <c r="G149" s="4">
+        <v>204.08163265306123</v>
+      </c>
+      <c r="H149" s="4">
+        <v>204.08163265306123</v>
+      </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A150" s="1"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
+      <c r="A150" s="1">
+        <v>45493</v>
+      </c>
+      <c r="B150" t="s">
+        <v>15</v>
+      </c>
+      <c r="C150" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" t="s">
+        <v>40</v>
+      </c>
+      <c r="E150" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150" s="4">
+        <v>13.66938775510204</v>
+      </c>
+      <c r="H150" s="4">
+        <v>13.66938775510204</v>
+      </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A151" s="1"/>
-      <c r="G151" s="4"/>
-      <c r="H151" s="4"/>
+      <c r="A151" s="1">
+        <v>45496</v>
+      </c>
+      <c r="B151" t="s">
+        <v>14</v>
+      </c>
+      <c r="C151" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" t="s">
+        <v>38</v>
+      </c>
+      <c r="E151" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151">
+        <v>9</v>
+      </c>
+      <c r="G151" s="4">
+        <v>4.1704081632653063</v>
+      </c>
+      <c r="H151" s="4">
+        <v>37.533673469387757</v>
+      </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="1"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -20,9 +20,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="45">
-  <si>
-    <t>OrderDate</t>
-  </si>
   <si>
     <t>Region</t>
   </si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>Proy#7</t>
+  </si>
+  <si>
+    <t>fecha</t>
   </si>
 </sst>
 </file>
@@ -992,39 +992,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
     <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1032,16 +1033,16 @@
         <v>45296</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1060,16 +1061,16 @@
         <v>45296</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1089,16 +1090,16 @@
         <v>45296</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -1118,16 +1119,16 @@
         <v>45296</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>14</v>
@@ -1147,16 +1148,16 @@
         <v>45296</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6">
         <v>12</v>
@@ -1176,16 +1177,16 @@
         <v>45302</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -1205,16 +1206,16 @@
         <v>45303</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -1234,16 +1235,16 @@
         <v>45303</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <v>13</v>
@@ -1263,16 +1264,16 @@
         <v>45303</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1292,16 +1293,16 @@
         <v>45303</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -1321,16 +1322,16 @@
         <v>45303</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1350,16 +1351,16 @@
         <v>45307</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1379,16 +1380,16 @@
         <v>45308</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -1408,16 +1409,16 @@
         <v>45308</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -1437,16 +1438,16 @@
         <v>45308</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1466,16 +1467,16 @@
         <v>45308</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1495,16 +1496,16 @@
         <v>45308</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1524,16 +1525,16 @@
         <v>45309</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1553,16 +1554,16 @@
         <v>45309</v>
       </c>
       <c r="B20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1582,16 +1583,16 @@
         <v>45314</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1611,16 +1612,16 @@
         <v>45316</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22">
         <v>4</v>
@@ -1640,16 +1641,16 @@
         <v>45316</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -1669,16 +1670,16 @@
         <v>45317</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1698,16 +1699,16 @@
         <v>45317</v>
       </c>
       <c r="B25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1727,16 +1728,16 @@
         <v>45317</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26">
         <v>12</v>
@@ -1756,16 +1757,16 @@
         <v>45321</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1785,16 +1786,16 @@
         <v>45321</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1814,16 +1815,16 @@
         <v>45321</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1843,16 +1844,16 @@
         <v>45327</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1872,16 +1873,16 @@
         <v>45327</v>
       </c>
       <c r="B31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1901,16 +1902,16 @@
         <v>45327</v>
       </c>
       <c r="B32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1930,16 +1931,16 @@
         <v>45327</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1959,16 +1960,16 @@
         <v>45327</v>
       </c>
       <c r="B34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1988,16 +1989,16 @@
         <v>45331</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2017,16 +2018,16 @@
         <v>45331</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2046,16 +2047,16 @@
         <v>45331</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2075,16 +2076,16 @@
         <v>45336</v>
       </c>
       <c r="B38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" t="s">
         <v>28</v>
-      </c>
-      <c r="D38" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" t="s">
-        <v>29</v>
       </c>
       <c r="F38">
         <v>3</v>
@@ -2104,16 +2105,16 @@
         <v>45336</v>
       </c>
       <c r="B39" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2133,16 +2134,16 @@
         <v>45336</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2162,16 +2163,16 @@
         <v>45336</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F41">
         <v>2</v>
@@ -2191,16 +2192,16 @@
         <v>45338</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -2220,16 +2221,16 @@
         <v>45341</v>
       </c>
       <c r="B43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" t="s">
         <v>6</v>
-      </c>
-      <c r="D43" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" t="s">
-        <v>7</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -2249,16 +2250,16 @@
         <v>45341</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -2278,16 +2279,16 @@
         <v>45341</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" t="s">
         <v>8</v>
-      </c>
-      <c r="D45" t="s">
-        <v>42</v>
-      </c>
-      <c r="E45" t="s">
-        <v>9</v>
       </c>
       <c r="F45">
         <v>4</v>
@@ -2307,16 +2308,16 @@
         <v>45341</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E46" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F46">
         <v>5</v>
@@ -2336,16 +2337,16 @@
         <v>45341</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -2365,16 +2366,16 @@
         <v>45343</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F48">
         <v>5</v>
@@ -2394,16 +2395,16 @@
         <v>45343</v>
       </c>
       <c r="B49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2423,16 +2424,16 @@
         <v>45343</v>
       </c>
       <c r="B50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -2452,16 +2453,16 @@
         <v>45344</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2481,16 +2482,16 @@
         <v>45344</v>
       </c>
       <c r="B52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -2510,16 +2511,16 @@
         <v>45345</v>
       </c>
       <c r="B53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E53" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F53">
         <v>9</v>
@@ -2539,16 +2540,16 @@
         <v>45348</v>
       </c>
       <c r="B54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -2568,16 +2569,16 @@
         <v>45348</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F55">
         <v>4</v>
@@ -2597,16 +2598,16 @@
         <v>45349</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F56">
         <v>4</v>
@@ -2626,16 +2627,16 @@
         <v>45351</v>
       </c>
       <c r="B57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2655,16 +2656,16 @@
         <v>45351</v>
       </c>
       <c r="B58" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F58">
         <v>13</v>
@@ -2684,16 +2685,16 @@
         <v>45351</v>
       </c>
       <c r="B59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E59" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F59">
         <v>4</v>
@@ -2713,16 +2714,16 @@
         <v>45351</v>
       </c>
       <c r="B60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F60">
         <v>4</v>
@@ -2742,16 +2743,16 @@
         <v>45351</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F61">
         <v>4</v>
@@ -2771,16 +2772,16 @@
         <v>45351</v>
       </c>
       <c r="B62" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E62" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F62">
         <v>4</v>
@@ -2800,16 +2801,16 @@
         <v>45355</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -2829,16 +2830,16 @@
         <v>45355</v>
       </c>
       <c r="B64" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -2858,16 +2859,16 @@
         <v>45355</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -2887,16 +2888,16 @@
         <v>45355</v>
       </c>
       <c r="B66" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E66" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -2916,16 +2917,16 @@
         <v>45355</v>
       </c>
       <c r="B67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2945,16 +2946,16 @@
         <v>45359</v>
       </c>
       <c r="B68" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F68">
         <v>13</v>
@@ -2974,16 +2975,16 @@
         <v>45359</v>
       </c>
       <c r="B69" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -3003,16 +3004,16 @@
         <v>45361</v>
       </c>
       <c r="B70" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E70" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -3032,16 +3033,16 @@
         <v>45361</v>
       </c>
       <c r="B71" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -3061,16 +3062,16 @@
         <v>45366</v>
       </c>
       <c r="B72" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E72" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -3090,16 +3091,16 @@
         <v>45369</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C73" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73" t="s">
         <v>8</v>
-      </c>
-      <c r="D73" t="s">
-        <v>42</v>
-      </c>
-      <c r="E73" t="s">
-        <v>9</v>
       </c>
       <c r="F73">
         <v>4</v>
@@ -3119,16 +3120,16 @@
         <v>45369</v>
       </c>
       <c r="B74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -3148,16 +3149,16 @@
         <v>45369</v>
       </c>
       <c r="B75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D75" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -3177,16 +3178,16 @@
         <v>45371</v>
       </c>
       <c r="B76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -3206,16 +3207,16 @@
         <v>45371</v>
       </c>
       <c r="B77" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D77" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -3235,16 +3236,16 @@
         <v>45372</v>
       </c>
       <c r="B78" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F78">
         <v>5</v>
@@ -3264,16 +3265,16 @@
         <v>45372</v>
       </c>
       <c r="B79" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F79">
         <v>5</v>
@@ -3293,16 +3294,16 @@
         <v>45373</v>
       </c>
       <c r="B80" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F80">
         <v>13</v>
@@ -3322,16 +3323,16 @@
         <v>45376</v>
       </c>
       <c r="B81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E81" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F81">
         <v>4</v>
@@ -3351,16 +3352,16 @@
         <v>45376</v>
       </c>
       <c r="B82" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E82" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F82">
         <v>4</v>
@@ -3380,16 +3381,16 @@
         <v>45378</v>
       </c>
       <c r="B83" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D83" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E83" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F83">
         <v>1</v>
@@ -3409,16 +3410,16 @@
         <v>45386</v>
       </c>
       <c r="B84" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D84" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -3438,16 +3439,16 @@
         <v>45386</v>
       </c>
       <c r="B85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D85" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -3467,16 +3468,16 @@
         <v>45386</v>
       </c>
       <c r="B86" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -3496,16 +3497,16 @@
         <v>45386</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D87" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -3525,16 +3526,16 @@
         <v>45386</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -3554,16 +3555,16 @@
         <v>45389</v>
       </c>
       <c r="B89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -3583,16 +3584,16 @@
         <v>45390</v>
       </c>
       <c r="B90" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D90" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -3612,16 +3613,16 @@
         <v>45390</v>
       </c>
       <c r="B91" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C91" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" t="s">
+        <v>40</v>
+      </c>
+      <c r="E91" t="s">
         <v>8</v>
-      </c>
-      <c r="D91" t="s">
-        <v>41</v>
-      </c>
-      <c r="E91" t="s">
-        <v>9</v>
       </c>
       <c r="F91">
         <v>4</v>
@@ -3641,16 +3642,16 @@
         <v>45390</v>
       </c>
       <c r="B92" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E92" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -3670,16 +3671,16 @@
         <v>45394</v>
       </c>
       <c r="B93" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>37</v>
+      </c>
+      <c r="E93" t="s">
         <v>6</v>
-      </c>
-      <c r="D93" t="s">
-        <v>38</v>
-      </c>
-      <c r="E93" t="s">
-        <v>7</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -3699,16 +3700,16 @@
         <v>45397</v>
       </c>
       <c r="B94" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F94">
         <v>4</v>
@@ -3728,16 +3729,16 @@
         <v>45397</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F95">
         <v>4</v>
@@ -3757,16 +3758,16 @@
         <v>45397</v>
       </c>
       <c r="B96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D96" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -3786,16 +3787,16 @@
         <v>45398</v>
       </c>
       <c r="B97" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" t="s">
+        <v>41</v>
+      </c>
+      <c r="E97" t="s">
         <v>8</v>
-      </c>
-      <c r="D97" t="s">
-        <v>42</v>
-      </c>
-      <c r="E97" t="s">
-        <v>9</v>
       </c>
       <c r="F97">
         <v>4</v>
@@ -3815,16 +3816,16 @@
         <v>45399</v>
       </c>
       <c r="B98" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D98" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E98" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F98">
         <v>4</v>
@@ -3844,16 +3845,16 @@
         <v>45399</v>
       </c>
       <c r="B99" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C99" t="s">
+        <v>27</v>
+      </c>
+      <c r="D99" t="s">
+        <v>42</v>
+      </c>
+      <c r="E99" t="s">
         <v>28</v>
-      </c>
-      <c r="D99" t="s">
-        <v>43</v>
-      </c>
-      <c r="E99" t="s">
-        <v>29</v>
       </c>
       <c r="F99">
         <v>3</v>
@@ -3873,16 +3874,16 @@
         <v>45399</v>
       </c>
       <c r="B100" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E100" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -3902,16 +3903,16 @@
         <v>45400</v>
       </c>
       <c r="B101" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D101" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -3931,16 +3932,16 @@
         <v>45404</v>
       </c>
       <c r="B102" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D102" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E102" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -3960,16 +3961,16 @@
         <v>45407</v>
       </c>
       <c r="B103" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F103">
         <v>9</v>
@@ -3989,16 +3990,16 @@
         <v>45416</v>
       </c>
       <c r="B104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D104" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -4018,16 +4019,16 @@
         <v>45416</v>
       </c>
       <c r="B105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C105" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -4047,16 +4048,16 @@
         <v>45416</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -4076,16 +4077,16 @@
         <v>45416</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E107" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -4105,16 +4106,16 @@
         <v>45416</v>
       </c>
       <c r="B108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D108" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E108" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -4134,16 +4135,16 @@
         <v>45421</v>
       </c>
       <c r="B109" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D109" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E109" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -4163,16 +4164,16 @@
         <v>45421</v>
       </c>
       <c r="B110" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E110" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -4192,16 +4193,16 @@
         <v>45421</v>
       </c>
       <c r="B111" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C111" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" t="s">
+        <v>41</v>
+      </c>
+      <c r="E111" t="s">
         <v>8</v>
-      </c>
-      <c r="D111" t="s">
-        <v>42</v>
-      </c>
-      <c r="E111" t="s">
-        <v>9</v>
       </c>
       <c r="F111">
         <v>4</v>
@@ -4221,16 +4222,16 @@
         <v>45427</v>
       </c>
       <c r="B112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D112" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -4250,16 +4251,16 @@
         <v>45427</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C113" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" t="s">
+        <v>40</v>
+      </c>
+      <c r="E113" t="s">
         <v>8</v>
-      </c>
-      <c r="D113" t="s">
-        <v>41</v>
-      </c>
-      <c r="E113" t="s">
-        <v>9</v>
       </c>
       <c r="F113">
         <v>4</v>
@@ -4279,16 +4280,16 @@
         <v>45432</v>
       </c>
       <c r="B114" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C114" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D114" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E114" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F114">
         <v>4</v>
@@ -4308,16 +4309,16 @@
         <v>45432</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C115" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D115" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -4337,16 +4338,16 @@
         <v>45432</v>
       </c>
       <c r="B116" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C116" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D116" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E116" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -4366,16 +4367,16 @@
         <v>45435</v>
       </c>
       <c r="B117" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D117" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F117">
         <v>9</v>
@@ -4395,16 +4396,16 @@
         <v>45447</v>
       </c>
       <c r="B118" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D118" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -4422,16 +4423,16 @@
         <v>45447</v>
       </c>
       <c r="B119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -4449,16 +4450,16 @@
         <v>45447</v>
       </c>
       <c r="B120" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C120" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D120" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -4476,16 +4477,16 @@
         <v>45447</v>
       </c>
       <c r="B121" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D121" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E121" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -4503,16 +4504,16 @@
         <v>45447</v>
       </c>
       <c r="B122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D122" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -4530,16 +4531,16 @@
         <v>45450</v>
       </c>
       <c r="B123" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D123" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E123" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -4557,16 +4558,16 @@
         <v>45451</v>
       </c>
       <c r="B124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E124" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -4583,16 +4584,16 @@
         <v>45451</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C125" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" t="s">
+        <v>40</v>
+      </c>
+      <c r="E125" t="s">
         <v>8</v>
-      </c>
-      <c r="D125" t="s">
-        <v>41</v>
-      </c>
-      <c r="E125" t="s">
-        <v>9</v>
       </c>
       <c r="F125">
         <v>4</v>
@@ -4609,16 +4610,16 @@
         <v>45451</v>
       </c>
       <c r="B126" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E126" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F126">
         <v>1</v>
@@ -4635,16 +4636,16 @@
         <v>45455</v>
       </c>
       <c r="B127" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C127" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" t="s">
+        <v>37</v>
+      </c>
+      <c r="E127" t="s">
         <v>6</v>
-      </c>
-      <c r="D127" t="s">
-        <v>38</v>
-      </c>
-      <c r="E127" t="s">
-        <v>7</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -4661,16 +4662,16 @@
         <v>45458</v>
       </c>
       <c r="B128" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E128" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F128">
         <v>4</v>
@@ -4687,16 +4688,16 @@
         <v>45458</v>
       </c>
       <c r="B129" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D129" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E129" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F129">
         <v>4</v>
@@ -4713,16 +4714,16 @@
         <v>45458</v>
       </c>
       <c r="B130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D130" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E130" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -4739,16 +4740,16 @@
         <v>45459</v>
       </c>
       <c r="B131" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C131" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" t="s">
+        <v>41</v>
+      </c>
+      <c r="E131" t="s">
         <v>8</v>
-      </c>
-      <c r="D131" t="s">
-        <v>42</v>
-      </c>
-      <c r="E131" t="s">
-        <v>9</v>
       </c>
       <c r="F131">
         <v>4</v>
@@ -4765,16 +4766,16 @@
         <v>45460</v>
       </c>
       <c r="B132" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D132" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F132">
         <v>4</v>
@@ -4791,16 +4792,16 @@
         <v>45460</v>
       </c>
       <c r="B133" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C133" t="s">
+        <v>27</v>
+      </c>
+      <c r="D133" t="s">
+        <v>42</v>
+      </c>
+      <c r="E133" t="s">
         <v>28</v>
-      </c>
-      <c r="D133" t="s">
-        <v>43</v>
-      </c>
-      <c r="E133" t="s">
-        <v>29</v>
       </c>
       <c r="F133">
         <v>3</v>
@@ -4817,16 +4818,16 @@
         <v>45460</v>
       </c>
       <c r="B134" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C134" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D134" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E134" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -4843,16 +4844,16 @@
         <v>45461</v>
       </c>
       <c r="B135" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C135" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D135" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -4869,16 +4870,16 @@
         <v>45465</v>
       </c>
       <c r="B136" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C136" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D136" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E136" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -4895,16 +4896,16 @@
         <v>45468</v>
       </c>
       <c r="B137" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C137" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D137" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E137" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F137">
         <v>9</v>
@@ -4921,16 +4922,16 @@
         <v>45477</v>
       </c>
       <c r="B138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -4947,16 +4948,16 @@
         <v>45477</v>
       </c>
       <c r="B139" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D139" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F139">
         <v>1</v>
@@ -4973,16 +4974,16 @@
         <v>45477</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C140" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D140" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -4999,16 +5000,16 @@
         <v>45477</v>
       </c>
       <c r="B141" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D141" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -5025,16 +5026,16 @@
         <v>45477</v>
       </c>
       <c r="B142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D142" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -5051,16 +5052,16 @@
         <v>45482</v>
       </c>
       <c r="B143" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D143" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E143" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -5077,16 +5078,16 @@
         <v>45482</v>
       </c>
       <c r="B144" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E144" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -5103,16 +5104,16 @@
         <v>45482</v>
       </c>
       <c r="B145" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C145" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" t="s">
+        <v>41</v>
+      </c>
+      <c r="E145" t="s">
         <v>8</v>
-      </c>
-      <c r="D145" t="s">
-        <v>42</v>
-      </c>
-      <c r="E145" t="s">
-        <v>9</v>
       </c>
       <c r="F145">
         <v>4</v>
@@ -5129,16 +5130,16 @@
         <v>45488</v>
       </c>
       <c r="B146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D146" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E146" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -5155,16 +5156,16 @@
         <v>45488</v>
       </c>
       <c r="B147" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C147" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" t="s">
+        <v>40</v>
+      </c>
+      <c r="E147" t="s">
         <v>8</v>
-      </c>
-      <c r="D147" t="s">
-        <v>41</v>
-      </c>
-      <c r="E147" t="s">
-        <v>9</v>
       </c>
       <c r="F147">
         <v>4</v>
@@ -5181,16 +5182,16 @@
         <v>45493</v>
       </c>
       <c r="B148" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C148" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D148" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F148">
         <v>4</v>
@@ -5207,16 +5208,16 @@
         <v>45493</v>
       </c>
       <c r="B149" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D149" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -5233,16 +5234,16 @@
         <v>45493</v>
       </c>
       <c r="B150" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D150" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E150" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -5259,16 +5260,16 @@
         <v>45496</v>
       </c>
       <c r="B151" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C151" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D151" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E151" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F151">
         <v>9</v>
@@ -5767,5 +5768,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>